--- a/data/trans_bre/P19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,97%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 9,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 9,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,68; 7,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 5,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 40,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,52; 45,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; 24,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,0; 14,79</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,03%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,53; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 6,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,61; 3,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 5,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,7; 15,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,03; 19,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 10,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,52; 11,07</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 6,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 8,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 6,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,59; 10,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,74; 20,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; 21,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,81; 12,67</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,19%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 7,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 10,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 12,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 17,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,47; 28,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 35,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 37,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 47,32</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 12,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 12,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 13,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 10,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 76,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 59,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 55,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 24,78</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,91%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 7,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 5,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 9,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 27,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 128,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,68; 48,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 52,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 82,32</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 3,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 4,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 5,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 9,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 11,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 14,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 15,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 19,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-14,11%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 5,91</t>
+          <t>-17,64; 5,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 14,79</t>
+          <t>-33,93; 15,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>-15,92%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 5,68</t>
+          <t>-29,09; 1,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 11,07</t>
+          <t>-49,55; 3,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 6,7</t>
+          <t>-4,91; 6,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 12,67</t>
+          <t>-8,27; 12,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>15,79</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>43,97%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 17,67</t>
+          <t>-0,46; 38,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 47,32</t>
+          <t>-0,97; 204,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,4%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 10,79</t>
+          <t>0,41; 10,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 24,78</t>
+          <t>0,78; 25,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>23,42</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>59,61%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 7,86</t>
+          <t>1,55; 13,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,43</t>
+          <t>-1,85; 10,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 9,44</t>
+          <t>0,17; 15,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 27,34</t>
+          <t>2,84; 47,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 128,1</t>
+          <t>11,2; 201,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 48,68</t>
+          <t>-10,19; 113,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 52,39</t>
+          <t>1,15; 87,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 82,32</t>
+          <t>7,01; 123,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>-18,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-5,56; 4,7</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 3,83</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 8,95</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 8,57</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-70,48; 206,32</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-49,71; 39,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-33,45; 59,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 38,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,25</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-1,9; 3,02</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,86; 4,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,25; 5,2</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 9,06</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 21,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-6,44; 11,13</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-2,69; 14,17</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-0,69; 15,56</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 19,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 63,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 9,23</t>
+          <t>-2,95; 9,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 9,26</t>
+          <t>-2,84; 9,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 7,13</t>
+          <t>-6,4; 7,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 5,61</t>
+          <t>-17,41; 5,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 40,93</t>
+          <t>-10,41; 44,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 45,59</t>
+          <t>-11,61; 46,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 24,73</t>
+          <t>-17,57; 26,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 15,42</t>
+          <t>-33,8; 14,74</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 5,59</t>
+          <t>-6,83; 5,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 6,54</t>
+          <t>-6,37; 5,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 3,81</t>
+          <t>-8,35; 3,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 1,79</t>
+          <t>-28,42; 0,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 15,55</t>
+          <t>-16,61; 13,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 19,66</t>
+          <t>-16,18; 16,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 10,12</t>
+          <t>-19,09; 9,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 3,25</t>
+          <t>-46,82; 1,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 3,54</t>
+          <t>-7,86; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 6,93</t>
+          <t>-5,42; 6,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 8,36</t>
+          <t>-3,91; 8,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 6,49</t>
+          <t>-5,18; 6,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 10,83</t>
+          <t>-19,62; 11,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 20,14</t>
+          <t>-13,13; 17,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 21,01</t>
+          <t>-9,0; 20,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 12,43</t>
+          <t>-8,72; 11,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 7,84</t>
+          <t>-5,6; 7,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 10,89</t>
+          <t>-1,45; 11,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 12,72</t>
+          <t>0,22; 12,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 38,47</t>
+          <t>-1,38; 38,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 28,57</t>
+          <t>-15,94; 26,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 35,14</t>
+          <t>-3,57; 36,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 37,99</t>
+          <t>0,5; 37,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 204,01</t>
+          <t>-2,71; 211,66</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 12,78</t>
+          <t>-1,08; 12,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 12,05</t>
+          <t>-1,52; 11,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 13,11</t>
+          <t>-1,04; 13,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 10,89</t>
+          <t>0,59; 10,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 76,31</t>
+          <t>-4,68; 77,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 59,44</t>
+          <t>-5,8; 58,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 55,05</t>
+          <t>-2,82; 55,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 25,13</t>
+          <t>1,19; 25,08</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 13,88</t>
+          <t>1,71; 14,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 10,95</t>
+          <t>-1,67; 11,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 15,69</t>
+          <t>-0,31; 15,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 47,06</t>
+          <t>2,36; 48,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 201,62</t>
+          <t>9,29; 211,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 113,88</t>
+          <t>-10,76; 113,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 87,31</t>
+          <t>-1,32; 88,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 123,48</t>
+          <t>6,0; 136,46</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,7</t>
+          <t>-5,33; 4,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 3,83</t>
+          <t>-9,77; 3,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 8,95</t>
+          <t>-8,35; 8,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 8,57</t>
+          <t>-2,03; 8,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 206,32</t>
+          <t>-68,84; 190,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 39,54</t>
+          <t>-52,66; 27,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 59,37</t>
+          <t>-36,17; 55,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 38,29</t>
+          <t>-7,18; 36,84</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,02</t>
+          <t>-1,81; 3,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,06</t>
+          <t>-0,8; 4,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,2</t>
+          <t>-0,39; 5,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,01; 21,75</t>
+          <t>-0,11; 18,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 11,13</t>
+          <t>-6,03; 11,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 14,17</t>
+          <t>-2,65; 14,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 15,56</t>
+          <t>-1,09; 14,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,06; 63,7</t>
+          <t>-0,2; 48,32</t>
         </is>
       </c>
     </row>
